--- a/app/src/main/assets/The Contemporary World.xlsx
+++ b/app/src/main/assets/The Contemporary World.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8317E2F-8387-4951-A718-BF47A0A8C1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A7542-851E-408C-9EC6-5D6F1DC6E4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Choice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="224">
   <si>
     <t>What is globalization?</t>
   </si>
@@ -696,6 +696,9 @@
   </si>
   <si>
     <t>Subsidized interest rates</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,7 +1033,7 @@
     <col min="6" max="6" width="68.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -1052,8 +1055,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1075,8 +1081,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -1098,8 +1107,11 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -1121,8 +1133,11 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -1144,8 +1159,11 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -1167,8 +1185,11 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -1190,8 +1211,11 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -1213,8 +1237,11 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -1236,8 +1263,11 @@
       <c r="G9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -1259,8 +1289,11 @@
       <c r="G10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -1282,8 +1315,11 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -1305,8 +1341,11 @@
       <c r="G12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -1328,8 +1367,11 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -1351,8 +1393,11 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -1374,8 +1419,11 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -1397,8 +1445,11 @@
       <c r="G16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -1420,8 +1471,11 @@
       <c r="G17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -1443,8 +1497,11 @@
       <c r="G18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -1466,8 +1523,11 @@
       <c r="G19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>183</v>
       </c>
@@ -1489,8 +1549,11 @@
       <c r="G20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -1512,8 +1575,11 @@
       <c r="G21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>183</v>
       </c>
@@ -1535,8 +1601,11 @@
       <c r="G22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -1558,8 +1627,11 @@
       <c r="G23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -1581,8 +1653,11 @@
       <c r="G24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -1604,8 +1679,11 @@
       <c r="G25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -1627,8 +1705,11 @@
       <c r="G26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -1650,8 +1731,11 @@
       <c r="G27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -1673,8 +1757,11 @@
       <c r="G28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>183</v>
       </c>
@@ -1696,8 +1783,11 @@
       <c r="G29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -1718,6 +1808,9 @@
       </c>
       <c r="G30" t="s">
         <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1727,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E84E61-2357-4E03-9228-CAFECCBC43A6}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1740,7 +1833,7 @@
     <col min="3" max="3" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -1750,8 +1843,11 @@
       <c r="C1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1761,8 +1857,11 @@
       <c r="C2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -1772,8 +1871,11 @@
       <c r="C3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -1783,8 +1885,11 @@
       <c r="C4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -1794,8 +1899,11 @@
       <c r="C5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -1805,8 +1913,11 @@
       <c r="C6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -1816,8 +1927,11 @@
       <c r="C7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -1827,8 +1941,11 @@
       <c r="C8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -1838,8 +1955,11 @@
       <c r="C9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -1849,8 +1969,11 @@
       <c r="C10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -1860,8 +1983,11 @@
       <c r="C11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -1871,8 +1997,11 @@
       <c r="C12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -1882,8 +2011,11 @@
       <c r="C13" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -1893,8 +2025,11 @@
       <c r="C14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -1904,8 +2039,11 @@
       <c r="C15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -1915,8 +2053,11 @@
       <c r="C16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -1926,8 +2067,11 @@
       <c r="C17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -1937,8 +2081,11 @@
       <c r="C18" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -1948,8 +2095,11 @@
       <c r="C19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -1959,8 +2109,11 @@
       <c r="C20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -1970,8 +2123,11 @@
       <c r="C21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>183</v>
       </c>
@@ -1981,8 +2137,11 @@
       <c r="C22" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -1992,8 +2151,11 @@
       <c r="C23" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -2003,8 +2165,11 @@
       <c r="C24" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -2014,8 +2179,11 @@
       <c r="C25" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -2025,8 +2193,11 @@
       <c r="C26" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -2036,8 +2207,11 @@
       <c r="C27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -2047,8 +2221,11 @@
       <c r="C28" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>183</v>
       </c>
@@ -2058,8 +2235,11 @@
       <c r="C29" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -2069,8 +2249,11 @@
       <c r="C30" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -2079,6 +2262,9 @@
       </c>
       <c r="C31" t="s">
         <v>200</v>
+      </c>
+      <c r="D31" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2088,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6C18E1-4256-4A7C-ABE8-555D69188366}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2100,7 +2286,7 @@
     <col min="2" max="2" width="123.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -2110,8 +2296,11 @@
       <c r="C1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -2121,8 +2310,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -2132,8 +2324,11 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -2143,8 +2338,11 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -2154,8 +2352,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -2165,8 +2366,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -2176,8 +2380,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -2187,8 +2394,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -2198,8 +2408,11 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -2209,8 +2422,11 @@
       <c r="C10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -2220,8 +2436,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -2231,8 +2450,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -2242,8 +2464,11 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -2253,8 +2478,11 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -2264,8 +2492,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -2275,8 +2506,11 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -2286,8 +2520,11 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -2297,8 +2534,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -2308,8 +2548,11 @@
       <c r="C19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -2319,8 +2562,11 @@
       <c r="C20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -2330,8 +2576,11 @@
       <c r="C21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -2341,8 +2590,11 @@
       <c r="C22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -2352,8 +2604,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -2363,8 +2618,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -2374,8 +2632,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -2385,8 +2646,11 @@
       <c r="C26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -2396,8 +2660,11 @@
       <c r="C27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -2407,8 +2674,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>183</v>
       </c>
@@ -2418,8 +2688,11 @@
       <c r="C29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -2429,8 +2702,11 @@
       <c r="C30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -2440,8 +2716,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>183</v>
       </c>
@@ -2451,8 +2730,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>183</v>
       </c>
@@ -2461,6 +2743,9 @@
       </c>
       <c r="C33" t="b">
         <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
